--- a/technics.xlsx
+++ b/technics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myras\Desktop\web\АЙФОРДЖИ\1. Сайт\Версии\2024.08.08 С техниками\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D139613-9674-4E39-8ABF-8E5909FAFBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D562164-4BC5-47E5-A305-4F405035F091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8B3C0685-6F1A-4785-AB28-046616BCD206}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="364">
   <si>
     <t>№</t>
   </si>
@@ -994,6 +994,534 @@
   </si>
   <si>
     <t>ссылка2</t>
+  </si>
+  <si>
+    <t>Список литературы</t>
+  </si>
+  <si>
+    <t>Кастанеда К. Учение дона Хуана. — М.: София, 2014.
+Ершов П. Конёк-горбунок. — М.: Малыш, 2020.
+Андреас К., Андреас Т. Сущностная трансформация. Обретение неиссякаемого внутреннего источника. — Воронеж: МОДЭК, 1999.
+Ковалев С. В. Нейропрограммирование успешной судьбы. — М.: ИП Пирогов С.А., 2021.</t>
+  </si>
+  <si>
+    <t>Бендлер Р. Используйте свой мозг для изменения. — Воронеж: МОДЭК, 1997.
+Бендлер Р. Используйте свой мозг для изменения. Нейролингвистическое программирование. — М.: Ювента, 1995.
+Боденхамер Б, Холл М. НЛП. Полный курс освоения базовых приемов. — М.: АСТ, 2016.
+Фридрих Шиллер. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/fridrikh-shiller/.
+Бендлер Р. Используйте свой мозг для изменения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бах Р. Иллюзии. Приключения одного мессии, который мессией быть не хотел. — М.: София, 2014.
+Сенека-младший. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/seneka-mladshii/.
+Уитмор Дж. Внутренняя сила лидера. Коучинг как метод управления персоналом. — М.: Альпина Паблишер, 2015.
+Хилл, Наполеон. Думай и богатей! — Минск: Попурри, 2021.
+Аристотель. Никомахова этика. — СПб.: Азбука, 2022.
+Завалкевич Л. Психология эффективного менеджера. — М.: Цифровая книга, 2015.
+Бауман Н. Сила фокуса внимания. Метафизический закон успеха. — М.: АСТ, 2017.
+</t>
+  </si>
+  <si>
+    <t>Олдер, Гарри, Берил, Хэзер. NLP. Полное практическое руководство. Вводный курс. — М.: София, 2001.
+Ситников А. П. Акмеологический тренинг: Теория, методика, психотехнологии. — М.: Технологическая школа бизнеса, 1996.
+Аристотель. Физика. — Наука, 2022.
+Hall Edward T. The Silent Language. — Random House, 1988.
+Atkinson R.C.; Shiffrin R.M. Chapter: Human memory: A proposed system and its control processes // The psychology of learning and motivation (Volume 2) / Spence K.W.; Spence J.T. — N.Y: Academic Press, 1968.
+Чойс Р. Т., Аткинсон М. Мастерство жизни. Внутренняя динамика развития. — М.: Альпина Паблишер, 2020.
+Балыко Диана. Переговоры... обреченные на успех. Техники НЛП в действии. — М.: Эксмо, 2008.
+Ковалев С. В. Нейропрограммирование успешной судьбы. — М.: ИП Пирогов С.А., 2021.
+Ковалев С. В. Семь шагов от пропасти. НЛП-терапия наркотических зависимостей. — М.: Твои книги, 2000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аткинсон М. Путь к изменению. Трансформационные метафоры. — М.: Альпина Паблишер, 2021.
+Дэвич В. 8 минут медитации. Восемь минут в день для начала новой жизни. — М.: София, 2014.
+Арден Дж. Укрощение амигдалы и другие инструменты тренировки мозга — М.: МИФ, 2016.
+Эмерсон, Ральф Уолдо. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/ralf-uoldo-emerson/.
+Аткинсон М. Жизнь в потоке: Коучинг. — М.: Альпина Паблишер, 2013.
+Аткинсон М. Путь к изменению. Трансформационные метафоры.
+</t>
+  </si>
+  <si>
+    <t>Лао-цзы. Дао дэ цзин. — СПб.: Азбука, 2014.
+Кабат-Зинн, Джон: Куда бы ты ни шел — ты уже там. Осознанная медитация в повседневной жизни. — М.: Эксмо, 2019.
+Фрейд Мишель. Примирить душу и тело. Телесные практики для жизни без болезней и стресса. — М.: Бомбора, 2020.
+Берч, Видьямала, Пенман, Денни. Осознанная медитация: практическое пособие по снятию боли и стресса. — М.: МИФ, 2014.</t>
+  </si>
+  <si>
+    <t>Альберт Эйнштейн. Цитаты. Веб-публикация: https://citaty.info/man/albert-einshtein.
+Пискарев Павел. Нейрографика. Алгоритм снятия ограничений. — М.: Бомбора, 2020.
+Фрай М. Большая телега. — СПб.: Амфора, 2009.</t>
+  </si>
+  <si>
+    <t>Холл М., Боденхамер Б., Болстэд Р. Структура личности. Моделирование «личности» с помощью НЛП и нейросемантики. — Липецк: КСП+, 2003.
+Ситников А. П. Акмеологический тренинг: Теория, методика, психотехнологии. — М.: Технологическая школа бизнеса, 1996.
+Бакштанский В., Жданов О. Менеджмент жизни. Стратегия личной эффективности. — М.: Беловодье, 2022.
+Холл М., Боденхаммер Б., Болстэд Р. Указ. соч.
+Уилбер К. Никаких границ. Восточные и западные пути личностного роста. — М.: АСТ, 2004.
+Холл М., Боденхаммер Б., Болстэд Р. Указ. соч.
+Ковалев С. В. Нейропрограммирование успешной судьбы. — М.: Профит Стайл, 2008.
+Роулинг Дж. Гарри Поттер и Кубок Огня. — М.: Махаон, 2015.</t>
+  </si>
+  <si>
+    <t>Бендлер, Ричард. Используйте свой мозг для изменения. — Воронеж: МОДЭК, 1997.
+Гордон, Дэвид. Терапевтические метафоры. — СПб.: Белый кролик, 1995
+Холл, Майкл, Боденхамер, Боб. Полный курс НЛП. — М.: АСТ, 2016.
+Ковалев С. НЛП: программа «Счастливая судьба». Ставим, запускаем, используем! — М.: АСТ, 2016.
+Генри Д. Т. Цитаты. Веб-публикация: https://citaty.info/man/genri-devid-toro.
+Холл М., Боденхамер Б. НЛП. Большая книга эффективных техник. — М.: АСТ, 2017.
+Сертификационный курс «Практики НЛП». Методические материалы. Кочарян Гарник. Терапевтические техники НЛП. — М.: Ника, 2002.
+Холл М., Боденхамер Б. НЛП. Большая книга эффективных техник. — М.: АСТ, 2017.
+Бендлер Р., Макдональд У. Руководство по субмодальностям. — СПб.: Прайм-Еврознак, 2014.
+William J. The Principles of Psychology, Vols. 1-2 (2 Volumes in 1). — Harvard University Press, 2017.
+Бендлер Р., Гриндер Дж. Из лягушек — в принцы. Нейролингвистическое программирование. — Калининград: Корвет, 2021.
+Шапиро Ф. Психотерапия эмоциональных травм с помощью движений глаз: Основные принципы, протоколы и процедуры / Пер. с англ. А. С. Ригина. — М.: Класс, 1998.</t>
+  </si>
+  <si>
+    <t>Плигин А. Коучинг жизненного пути. — М: РИПОЛ классик, 2020.
+Плигин А. А. Стратегические основы построения жизненного пути личности: от теории — к методу психологической помощи. Актуальные проблемы психологического знания. — М.: МПСУ, 2017.
+Плигин А. А. Системное формирование жизненного пути личности и проектирование стратегии психологической помощи. Фельдштейновские чтения: первая межвузовская научно-практическая конференция. — М.: МПСУ, 2017.
+Плигин А. А. Системное формирование жизненного пути: от сценария — к вариантам жизни. Актуальные направления социально-психологических исследований личности в онтогенезе: сборник материалов межвузовской научно-практической конференции. — М.: ИИУ МГОУ, 2019.</t>
+  </si>
+  <si>
+    <t>Чиксентмихайи М. Эволюция личности. — М.: Альпина нон-фикшн, 2013.
+Леонтьев Д. А. Рефлексия как предпосылка самодетерминации. В кн. А. Л. Журавлев (ред.), Психология человека в современном мире: Материалы Всероссийской юбилейной научной конференции, посвященной 120-летию со дня рождения С. Л. Рубинштейна. — М.: Институт психологии РАН, 2009.
+Локк Дж. Сочинения. — М.: Мысль, 1985.
+Розанов В. Цель человеческой жизни. — М.: RUGRAM, 2011.
+Бахтин М. М. Эстетика словесного творчества. — М.: Искусство, 1979.
+Леонтьев Д. А., Рассказова Е. И. Тест жизнестойкости. — М.: Смысл, 2006.
+Maddi S. The Courage and Strategies of Hardiness as Helpful in Growing Despite Major, Disruptive Stresses // American Psychologist, 2008.
+Рассказова Е. Жизнестойкость: неявный навык для преодоления трудностей. Веб-публикация: http://www.elitarium.ru/zhiznestojkost_navyk/.
+Леонтьев Д. А. Психология смысла. — М.: Смысл, 1999.
+Джеймс У. Психология. — М.: Амрита-Русь, 2019.
+Бернс Р. Развитие Я-концепции и воспитание. — М.: Прогресс, 1986.
+Практикум по социальной психологии / Под ред. И. С. Клециной. — СПб.: Питер, 2008.</t>
+  </si>
+  <si>
+    <t>Марк Аврелий. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/mark-avrelii/.
+Эллис А., Драйден У. Практика рационально-эмоциональной поведенческой терапии. — СПб.: Речь, 2002.
+Эпиктет. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/epiktet.
+Уолен С., ДиГусепп Р., Уэсслер Р. Рационально-эмотивная психотерапия: когнитивно-бихевиоральный подход. — М.: Ин-т гуманитарных знаний, 1997.
+Ромек Е. А., Ромек В. Г. Логика эмоций и принципы рационально-эмоциональной поведенческой психотерапии // Индивидуальные различия в познании и общении: Сборник научных трудов. — Ростов н/Д.: Антей, 2007.
+Кассинов Г. Рационально-эмоционально-поведенческая терапия как метод лечения эмоциональных расстройств // Психотерапия: от теории к практике. Материалы I съезда Российской психотерапевтической ассоциации. — СПб.: Изд-во психоневрологического ин-та им. В. М. Бехтерева, 1995.
+Ellis, A. Reason and Emotion in Psychotherapy: A New and Comprehensive Method of Treating Human Disturbances — Citadel Press, 1962; Справочник практического психолога: Психотерапия / Сост. С. Л. Соловьева. — М.: ACT; СПб.: Сова, 2007.
+Эллис А., Драйден У. Указ. соч.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семенова А. И. Универсальная основа целебной творческой психолингвистики. Ее истоки, перспективы, рабочие технологии метода // Антология российской психотерапии и психологии. — М., 2017.
+Метод ЦПТ. Веб-публикация: https://www.method-tcp.ru/glavnaya.
+</t>
+  </si>
+  <si>
+    <t>Кэрролл, Льюис. Алиса в Зазеркалье. — М.: Эксмо, 2019.
+Джозеф О'Коннор, Джон Сеймор. Введение в нейролингвистическое программирование. Новейшая психология личностного мастерства — М.: Версия, 1997.
+Бендлер, Ричард, Гриндер, Джон. Большая энциклопедия НЛП. Структура магии. — М.: АСТ, 2019.
+Янг П. Метафоры и модели изменения. Постигаем искусство НЛП. — М.: Эксмо, 2003.
+Korzybski A. Science and Sanity: An Introduction to Non-Aristotelian Systems and General Semantics. — Institute of General Semantics, 1994.
+Стендаль. О любви. Дневники. — М.: Т8, 2021.
+Ковалев С. В. Нейропрограммирование успешной судьбы. — М.: ИП Пирогов С.А., 2021.
+Стюарт, Вильям. Работа с образами и символами в психологическом консультировании. — М.: Класс, 1998.</t>
+  </si>
+  <si>
+    <t>Джозеф О'Коннор, Джон Сеймор. Введение в нейролингвистическое программирование. Новейшая психология личностного мастерства. — М.: Версия, 1997.
+Гордон Д., Майерс-Андерсон М. Феникс. Терапевтические паттерны Милтона Эриксона. — СПб.: Прайм-Еврознак, 2014.
+Бендлер, Ричард, Гриндер, Джон. Большая энциклопедия НЛП. Структура магии. — М.: АСТ, 2019; Холл М., Боденхамер Б., Болстэд Р. Структура личности. Моделирование «личности» с помощью НЛП и нейросемантики. — Липецк: КСП+, 2003.
+Бендлер, Ричард. Используйте свой мозг для изменения. — Воронеж: МОДЭК, 1997.
+Джозеф О'Коннор, Джон Сеймор. Указ. соч.
+Гордон Д., Майерс-Андерсон М. Указ. соч.
+Холл М., Боденхаммер Б., Болстэд Р. Структура личности. Моделирование «личности» с помощью НЛП и нейросемантики. — КСП+, 2003.
+Джозеф О'Коннор, Джон Сеймор. Введение в нейролингвистическое программирование. Новейшая психология личностного мастерства — М.: Версия, 1997.
+Холл М., Боденхамер Б. НЛП. Большая книга эффективных техник. — М.: АСТ, 2017.
+Кэмерон-Бендлер Л. С тех пор они жили счастливо. Простая и эффективная психотерапия сексуальных проблем и трудностей во взаимоотношениях. — Воронеж: МОДЭК, 1997.</t>
+  </si>
+  <si>
+    <t>Pennebaker J.W. The Secret Life of Pronouns: What Our Words Say about Us. — N.Y.: Bloomsbury Publishing, 2011.
+Progoff I. At a Journal Workshop. — N.Y.: Dialogue House, 1977;
+Кутузова Д. А. Ведение «структурированного дневника» по методу Айры Прогоффа // Московский психотерапевтический журнал. — 2009. — № 1.
+Rainer, Tristine. The new diary: how to use a journal for self-guidance and expanded creativity. — TarcherPerigee, 2004.
+Christina Baldwin. One to One: Self-Understanding Through Journal Writing. — M. Evans &amp; Company; 2nd edition, 1991.
+James W. Pennebaker, Joshua M. Smyth. Opening Up by Writing It Down, Third Edition: How Expressive Writing Improves Health and Eases Emotional Pain. — The Guilford Press, 2016.
+Кэтлин Адамс. Дневник как путь к себе. 22 практики для самопознания и личного развития. — М.: МИФ, 2018.
+Кэрролл Райдер: Bullet Journal метод. Переосмысли прошлое, упорядочи настоящее, спроектируй будущее. — М.: Бомбора, 2019.
+Джендлин Ю. Фокусирование. Новый психотерапевтический метод работы с переживаниями. — М.: Класс, 2000
+Кэтлин Адамс. Указ. соч.
+Кутузова Д. Месяц письменных практик. — М.: Издательские решения, 2020.
+Письменные практики в помощь себе и другим. Веб-публикация:
+https://pismennyepraktiki.com/; James W. Pennebaker, Joshua M. Smyth. Opening Up by Writing It Down, Third Edition: How Expressive Writing Improves Health and Eases Emotional Pain.
+Выготский Л. С. Собрание сочинений в 6 т. Т. 4: Детская психология. — М.: Педагогика, 1984.
+Письменные практики в помощь себе и другим. Веб-публикация: https://pismennyepraktiki.com/; James W. Pennebaker, Joshua M. Smyth. Opening Up by Writing It Down, Third Edition: How Expressive Writing Improves Health and Eases Emotional Pain.
+Письменные практики в помощь себе и другим. Веб-публикация: https://pismennyepraktiki.com/write_compass/zdorove-15-minut-low.
+Кутузова Д. Месяц письменных практик. — М.: Издательские решения, 2020.
+Письменные практики в помощь себе и другим. Веб-публикация: https://pismennyepraktiki.com/.
+Кутузова, Д. Письменная практика «Шестнадцать тем». — М.: И. Б. Белый, 2016.</t>
+  </si>
+  <si>
+    <t>Альберт Эйнштейн. Цитаты. Веб-публикации: https://ru.citaty.net/avtory/albert-einshtein/.
+Фрейд З. Толкование сновидений. — М.: Эксмо, 2022.
+Вачков И. Метафорический тренинг. — М.: Ось-89, 2006.
+Мураками Х. Страна Чудес без тормозов и Конец Света. — М.: Эксмо, 2020.
+Вачков И. Метафорический тренинг.
+Миллс Дж., Кроули Р. Терапевтические метафоры для детей и «внутреннего ребенка». — М.: Класс, 2000.
+Вачков И. Основы технологии группового тренинга. — М.: Ось-89, 1999.
+Юнг К. Г. Душа и миф. Шесть архетипов. — Минск: Харвест, 2005.
+Кроль Л. М. Образы и метафоры в интегративной гипнотерапии. — М.: Класс, 2001
+Вачков И. Метафорический тренинг.</t>
+  </si>
+  <si>
+    <t>Басё М. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/matsuo-basio/.
+Бендлер Р., Гриндер Д. Большая энциклопедия НЛП. Структура магии. — М.: АСТ, 2019.
+Фрейд З. Введение в психоанализ. — М.: АСТ, 2021.
+Дилтс Р. Фокусы языка. Изменение убеждений с помощью НЛП. — СПб.: Питер, 2022.
+Словарь практического психолога. — Минск: АСТ, Харвест, 1998;
+Дилтс Р. Фокусы языка. Изменение убеждений с помощью НЛП.</t>
+  </si>
+  <si>
+    <t>Лапланш Ж., Понталис Ж.-Б. Словарь по психоанализу. — М.: Высшая школа, 1996.
+Слобин Д., Грин Дж. Психолингвистика / Под общ. ред. и с предисл. д-ра филол. наук А. А. Леонтьева. — М.: Прогресс, 1976.
+Шульц Д. П., Шульц С. Э. История современной психологии. — СПб.: Евразия, 1998.
+Фрейд З. Собрание сочинений в 26 т. Том 1. Исследования истерии. — СПб.: Скифия, 2020.
+Юнг К. Г. О психологии бессознательного. — М.: АСТ, 2021.
+Фрейд З. Психопатология обыденной жизни. — М.: Эксмо, 2015.
+Как отправить свой мозг на перезагрузку? Объясняет коуч Алексей Ситников, 2020. Веб-публикация: https://www.tatler.ru/heroes/vam-dostupny-obnovleniya-zagruzit-sejchas; Обвиняемый, встаньте: психология с Алексеем Ситниковым, 2022. Веб-публикация: https://www.tatler.ru/story/obvinyaemyj-vstante-psihologiya-s-alekseem-sitnikovym.
+Фрейд З. Методика и техника психоанализа / Фрейд З. Психоаналитические этюды. — Минск, 1997; Короленко Ц. П., Дмитриева Н. В. Психоанализ и психиатрия: Монография. — Новосибирск: НГПУ, 2003.</t>
+  </si>
+  <si>
+    <t>Торо Г. Д. Уолден, или Жизнь в лесу. — М.: АСТ, 2021.
+Бек А., Фримен А. Когнитивная психотерапия расстройств личности. — СПб.: Питер, 2017.
+Бек Дж. Когнитивная терапия: полное руководство. — М.: ИД Вильямс, 2006.
+Гилберт Э. Есть, молиться, любить. — М.: РИПОЛ классик, 2022.
+Старшенбаум Г. В. Психосоматика и психотерапия. Исцеление души и тела. — М.: Из-во Института психотерапии, 2005.
+Гринбергер Д., Падески К. Управление настроением: методы и упражнения. — СПб.: Питер, 2008.
+Паскаль Б. Мысли. — М.: АСТ, 2020.
+Малкина-Пых И. Техники гештальта и когнитивной терапии. — М.: Эксмо, 2008.
+Лихи Р. Лекарство от нервов. Как перестать волноваться и получить удовольствие от жизни. — СПб.: Питер, 2020.</t>
+  </si>
+  <si>
+    <t>Генри Филдинг. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/genri-filding/.
+Дилтс Р. Фокусы языка. Изменение убеждений с помощью НЛП. — СПб.: Питер, 2021.
+Ковалев С. В. Нейропрограммирование успешной судьбы. — М.: ИП Пирогов С. А., 2021.
+Уилбер К. Теория всего. Интегральный подход к бизнесу, политике, науке и духовности. — М.: РИПОЛ классик, 2017.
+Мак-Дермотт Я., О'Коннор Дж. НЛП и здоровье. Использование НЛП для улучшения здоровья и благополучия. — Челябинск: Библиотека А. Миллера, 1998.
+Бах Р. Д. Чайка по имени Джонатан Ливингстон. — СПб.: Антология, 2018.
+Гамильтон Д. Мысль имеет значение. Поразительное доказательство власти разума над телом. — СПб.: Весь, 2011.
+Холл М., Боденхамер Б. НЛП. Большая книга эффективных техник. — М.: АСТ, 2017.
+Дилтс Р. Стратегии гениев. Т. 2. Альберт Эйнштейн. — М.: Класс, 1998.
+Плигин А., Герасимов А. Руководство к курсу НЛП-практик. — М.: Твоя книга, 2020.</t>
+  </si>
+  <si>
+    <t>Завалкевич Л. Психология эффективного менеджера. — М.: Цифровая книга, 2015.
+Бендлер Р., Гриндер Дж. Рефрейминг. Ориентация личности с помощью речевых стратегий. — Воронеж: МОДЭК, 1995.
+Дилтс Р. Стратегии гениев. Т. 2. Альберт Эйнштейн. — М.: Класс, 1998.
+Дилтс Р. Стратегии гениев. Т. 3. Зигмунд Фрейд, Леонардо да Винчи, Никола Тесла. 
+Кочарян Г. С. Терапевтические техники нейролингвистического программирования (НЛП). — Киев: Ника-Центр, 2002; Ковалев С. В. Нейропрограммирование успешной судьбы. — М.: ИП Пирогов С.А., 2021.
+Владиславова Н. В. НЛП. Техники, меняющие жизнь. — М.: АСТ, 2018.
+Хосе Рауль Капабланка. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/khose-raul-kapablanka/.
+Ситников А. KARMALOGIC. — М.: РИПОЛ классик, 2018.
+Владиславова Н. В. Указ. соч.
+Дилтс Р. Фокусы языка. Изменение убеждений с помощью НЛП. — СПб.: Питер, 2021.</t>
+  </si>
+  <si>
+    <t>Генри Дэвид Торо. Цитаты. Веб-публикация: https://citaty.info/man/genri-devid-toro.
+Роббинс Э. Беспредельная власть. — Минск: Поппури, 2002.
+Андреас С., Фолкнер Ч. НЛП. Технология успеха. — М.: Эксмо, 2009.
+Гриндер Дж., Делозье Дж. Черепахи до самого низа. Предпосылки личной гениальности. — СПб.: Прайм-Еврознак, 2005
+Андреас С., Фолкнер Ч. Указ. соч.
+Ковалев С. В. Нейропрограммирование успешной судьбы. — М.: ИП Пирогов С.А., 2021.</t>
+  </si>
+  <si>
+    <t>Грей Д. Лиминальное мышление. Как перейти границы своих убеждений. — М.: МИФ, 2017.
+ Холл М., Боденхамер Б., Болстэд Р. Структура личности. Моделирование «личности» с помощью НЛП и нейросемантики. — Липецк: КСП+, 2003.
+Бек Дж. Когнитивная терапия. Полное руководство. — М.: ИД Вильямс, 2018.
+Дилтс Р. Стратегии гениев. Т. 3. Зигмунд Фрейд, Леонардо да Винчи, Никола Тесла. — М.: Класс, 1998.
+Ганда М. Моя жизнь. — М.: АСТ, 2021.
+Большая психологическая энциклопедия. — М.: Эксмо, 2007.
+Дилтс Р. Указ. соч.
+Дилтс Р. Фокусы языка. Изменение убеждений с помощью НЛП. — СПб.: Питер, 2022.
+Холл М., Боденхаммер Б., Болстэд Р. Указ. соч.
+Зандер Б., Зандер Р. Искусство возможности: как сыграть свою лучшую партию в карьере и жизни. — М.: Альпина Паблишер, 2019.</t>
+  </si>
+  <si>
+    <t>Ачор Ш. Преимущество счастья. 7 принципов успеха по результатам исследований компаний из списка Fortune. — М.: Эксмо, 2014.</t>
+  </si>
+  <si>
+    <t>Свидетельство о депонировании Авторского метода: № 018 — 007221.
+Feynman R. P. The Theory of Positrons // Physical Review. — Vol. 76, N. 6. — 1949.</t>
+  </si>
+  <si>
+    <t>Блейк У. Бракосочетание Рая и Ада. Избранные стихотворения и поэмы. — М.: Эксмо, 2006.
+Джойс Ф., Силлз Ш. Гештальт-терапия шаг за шагом. Навыки в гештальт-терапии. — М.: Ин-т общегуманитарных исследований, 2017.
+Федоренко Е. Ю., Островская Е. В. Личностная автономия и возможности ее развития средствами групповой гештальт-терапии // Международный журнал экспериментального образования. — 2017. — № 5;
+Польстер И. Интегрированная гештальт-терапия: Контуры теории и практики. — М.: Класс, 2004.
+Джойс Ф., Силлз Ш. Осознавание в гештальт-терапии. Веб-публикация: https://vitaliyeliseev.com. Yontef G. Awareness, Dialogue and Process. — Highland, NY: Gestalt Journal Press, 1993.
+Гештальт 2011. Сборник материков Московского гештальт-института за 2000 год. — М., 2001.
+Уайльд, Оскар. Мысли, афоризмы и фразы. — М.: Эксмо, 2018.
+Джойс Ф., Силлз Ш. Гештальт-терапия шаг за шагом. Навыки в гештальт-терапии.
+Перлз Ф., Хефферлин П., Гудмэн Р. Опыты психологии самосознания. Практикум по гештальт-терапии. — М.: Академический проект, 2020.
+Джойс Ф., Силлз Ш. Указ. соч.</t>
+  </si>
+  <si>
+    <t>Плигин А. А. Коучинг жизненного пути. — М.: РИПОЛ классик, 2020.
+Плигин А. А. Системное формирование жизненного пути личности и проектирование стратегии психологической помощи. Фельдштейновские чтения: первая межвузовская научно-практическая конференция. — М.: МПСУ, 2017.
+Плигин А. А. Системное формирование жизненного пути: от сценария — к вариантам жизни. Актуальные направления социально-психологических исследований личности в онтогенезе: сб. материалов межвузовской научно-практической конференции. — М.: ИИУ МГОУ, 2019.
+Плигин А. А. Стратегические основы построения жизненного пути личности: от теории — к методу психологической помощи. Актуальные проблемы психологического знания. — М.: МПСУ, 2017.</t>
+  </si>
+  <si>
+    <t>Адлер А. Наука жить. — Киев: Порт-Рояль, 1997.
+Сенека-младший. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/seneka-mladshii/
+Фромм Э. Иметь или быть? — М.: АСТ, 2016.</t>
+  </si>
+  <si>
+    <t>Ануров Д., Маслова Ю. Архетип Счастья: все, что нужно знать об архетипах и их влиянии на нашу жизнь. — М: Медков С.Б., 2017.
+Юнг К. Г. Синхрония: аказуальный объединяющий принцип. — М.: АСТ, 2010.
+Юнг К. Г. Символы трансформации. — М.: Академический проект, 2021.
+Карл Густав Юнг. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/karl-gustav-iung/.
+Кэмпбелл Дж. Тысячеликий герой. — СПб.: Питер, 2018.</t>
+  </si>
+  <si>
+    <t>Ануров Д., Маслова Ю. Архетип Счастья: все, что нужно знать об архетипах и их влиянии на нашу жизнь. — М.: Медков С.Б., 2017.
+Юнг К. Г. Символы трансформации. — М.: Академический проект, 2021.
+Карл Густав Юнг. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/karl-gustav-iung/.
+Кэмпбелл Дж. Тысячеликий герой. — СПб.: Питер, 2018.
+Тойч Ч. К., Тойч Дж. М. Второе рождение, или Искусство познать и изменить себя. — СПб.: Санрэй, 1998.
+Штайнер К. Сценарии жизни людей. Школа Эрика Берна. — СПб.: Питер, 2019.
+Берн Э. Игры, в которые играют люди. — СПб.: Лениздат, 1992.
+Шейнов В. Тайны поведения человека. Секретные ниточки, кнопки и рычаги. Трансактный анализ — просто, понятно, интересно. — М.: АСТ, 2017.
+Штайнер К. Указ. соч.
+Малкина-Пых И. Техники транзактного анализа и психосинтеза. — М.: Эксмо, 2004.
+Сафарли Э. Мне тебя обещали. — М.: АСТ, 2015.</t>
+  </si>
+  <si>
+    <t>Дипак, Чопра. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/dipak-chopra/.
+Ошо. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/osho/.</t>
+  </si>
+  <si>
+    <t>Clark Ronald. Einstein: The Life and Times. — London, Hodder and Stoughton Ltd., 1973.
+Перлз, Фредерик. Теория гештальт-терапии. — М.: Институт общегуманитарных исследований, 2017.
+Дилтс Р. Стратегии гениев. Т. 1. Аристотель, Шерлок Холмс, Уолт Дисней, Вольфганг Амадей Моцарт. — М.: Класс, 1998.
+О'Коннор Дж., Сеймор Дж. Введение в нейролингвистическое программирование. Новейшая психология личностного мастерства — М.: Версия, 1997;
+Дилтс Р. НЛП: управление креативностью. — СПб.: Питер, 2003
+Альберт Эйнштейн. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/albert-einshtein/.
+Дилтс Р. Указ. соч.
+О'Коннор Дж., Сеймор Дж. Указ. соч.
+Дилтс Р. НЛП: навыки эффективной презентации. — СПб.: Питер, 2002.</t>
+  </si>
+  <si>
+    <t>Франкл В. Человек в поисках смысла: Сборник. — М.: Прогресс, 1990.
+Ялом И. Д. Экзистенциальная психотерапия. — М.: Класс, 2019.
+Экзистенциальная психология / Под ред. Ролло Мэя. — М.: Эксмо, 2001.
+Франкл В. Воля к смыслу. — М.: Альпина нон-фикшн, 2018.
+Ялом И. Когда Ницше плакал. — М.: Эксмо, 2020.
+Лэнгле А. Что движет человеком? Экзистенциально-аналитическая теория эмоций. — М.: Генезис, 2017.
+Попова О. Ф. Динамика переживания вины в экзистенциальном анализе // Акмеология. — 2012. — № 4.
+Ялом Ирвин Д. Экзистенциальная психотерапия. — Класс, 2019.
+Пергаменщик Л. А. Кризисная психология. Учебное пособие. — М.: Высшая школа, 2004.</t>
+  </si>
+  <si>
+    <t>Дикманн Х. Методы аналитической психологии. — М.: Городец, 2017.
+Кэмпбелл Дж. Тысячеликий герой. — СПб.: Питер, 2018.
+Юнг К. Г. Душа и миф. Шесть архетипов. — Киев: Порт-Рояль, 1997.
+Воглер К. Путешествие писателя. Мифологические структуры в литературе и кино. — М.: Альпина нон-фикшн, 2015
+Pearson, Carol. Awakening the Heroes Within. — HarperOne, 1991.
+Вачков И. Введение в сказкотерапию, или «Избушка, избушка, повернись ко мне передом…». — М.: Генезис, 2011.
+Юнг К. Г. Архетипы и коллективное бессознательное. — М.: АСТ, 2019.
+Дикманн Х. Методы аналитической психологии. — М.: Городец, 2017.
+Дикманн Х. Сказание и иносказание. Юнгианский анализ волшебных сказок. — М.: ИОИ, 2021.</t>
+  </si>
+  <si>
+    <t>Мясищев В. Н. Психология отношений. — М.: МПСИ; Воронеж: МОДЕК, 2003.
+Резюме модальности «Позитивная динамическая психотерапия». Веб-публикация: https://oppl.ru/2020-vyipusk-3/rezyume-modalnosti-pozitivnaya-dinamicheskaya-psihoterapiya.html; Позитивная динамическая психотерапия: анализ сновидений в русле психологии отношений В. Н. Мясищева // Медицинская психология в России. — 2016. — № 6(41). Веб-публикация: http://mprj.ru/archiv_global/2016_6_41/nomer05.php.
+Позитивная динамическая психотерапия: анализ сновидений в русле психологии отношений В. Н. Мясищева // Медицинская психология в России. — № 6(41). — 2016. Веб-публикация: http://mprj.ru/archiv_global/2016_6_41/nomer05.php.
+Лазурский А. Ф. Избранные труды по психологии. — М.: Наука, 1997.
+Мясищев В. Н. Личность и неврозы. — Л.: Изд-во Ленинградского ун-та, 1960.
+Ялом И. Д. Экзистенциальная психотерапия. — М.: Класс, 2019.
+Слабинский В. Психотерапия. — СПб.: Питер, 2020.</t>
+  </si>
+  <si>
+    <t>Бурлачук Л. Ф., Жидко М. Е., Кочарян А. С. Психотерапия. Учебник для вузов. — СПб.: Питер, 2019.
+Бендлер Р. Используйте свой мозг для изменения. Нейролингвистическое программирование. — М.: Ювента, 1995.
+Чайкина А. Главная психотехника высокоэффективных людей. — М.: АСТ, 2007.
+Андреас С., Андреас К. Измените свое мышление — и воспользуйтесь результатами. — М.: Ювента, 1994.
+Сеймор Дж., О`Коннор Дж. Введение в нейролингвистическое программирование. Новейшая психология личного мастерства. — М.: Версия, 2007.
+Фоланер Ч., Андрес С. NLP. Новые технологии достижения успеха. — М.: София, 2001.
+Гагин Т. В. Пластилин мира, или Курс «НЛП-практик» как он есть. — М.: Психотерапия, 2009.
+Все о НЛП. Тренинговый центр Александра Любимова. Веб-публикация: https://trenings.ru/entsiklopediya-nlp/modeli/911-model-nlp-trjokhpozitsionnoe-opisanie.html.
+Волкер Вольфганг. Проект НЛП: исходный код. — М.: Маркетинг, 2002.
+Все о НЛП. Тренинговый центр Александра Любимова. Веб-публикация: https://trenings.ru/entsiklopediya-nlp/modeli/461-model-nlp-score.html.
+Дилтс Р., Делозье Дж. НЛП-2: поколение Next. — СПб.: Питер, 2012.
+Робинсон Э. НЛП. Секретные методики спецслужб. — М.: AB Publishing, 2015.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Павлов И. П. Полн. собр. соч. Т. 3. Кн. 2. — М.: Изд-во АН СССР, 1951–1952.
+Чуприкова Н. Психика и психические процессы (система понятий общей психологии). — М.: Языки славянских культур, 2015.
+Журавлев Д. В. Психологическая регуляция и оптимизация функциональных состояний спортсмена. Методическое пособие. — М., 2009.
+Практикум по спортивной психологии / Под ред. И. П. Волкова. — СПб.: Питер, 2002.
+Полозов А. А. Мини-футбол. Новые технологии в подготовке команд. — М., 2007.
+Сивицкий В. Идеомоторика: знакомая незнакомка. — Минск: Веды, 2003.
+Алиев Х. Помоги себе сам. — М.: Маркетинг, 1992.
+Алиев Х. Ключ к себе. — М.: Молодая гвардия, 1990.
+Леонова А. Б., Кузнецова А. С. Психологические технологии управления состоянием человека. — М.: Смысл, 2007.
+Лобзин В. С., Решетников М. М. Аутогенная тренировка: Справочное пособие для врачей. — Л.: Медицина, 1986.
+</t>
+  </si>
+  <si>
+    <t>Узнадзе Д. Н. Экспериментальные основы психологии установки. — Тбилиси: Изд-во Акад. наук Груз. ССР, 1961.
+Узнадзе Д. Н. Психология установки. — СПб.: Питер, 2001.
+Митчелл М. Унесенные ветром. — М.: Иностранка, 2020.
+Узнадзе Д. Н. Психология установки.
+Рой О. С любовью. — М.: Эксмо, 2019.
+Узнадзе Д. Н. Психология установки.</t>
+  </si>
+  <si>
+    <t>Менегетти А. Психосоматика. — М.: НФ Антонио Менегетти, 2020.
+Величко М. Психосоматика. Когда болеет тело, а причины в душе. Как самостоятельно помочь телу, понимая его язык. — М.: Кислород, 2020.
+Джойс Мак-Д. Театры тела. Психоаналитический подход к лечению психосоматических расстройств. — М.: Когито-центр, 2007.
+Рено Ж. Исцеление воспоминанием. Авторская методика разрешения внутренних конфликтов и лечения болезней. — М.: Эксмо, 2020.
+Старшенбаум Г. В. Психосоматика и психотерапия: Исцеление души и тела. — М.: Издательство Института психотерапии, 2005.
+Величко М. Психосоматика. Когда болеет тело, а причины в душе. Как самостоятельно помочь телу, понимая его язык. — М.: Кислород, 2020.
+Менегетти А. Психосоматика. — М.: НФ «Антонио Менегетти», 2020.
+Старшенбаум Г. В. Указ. соч.; Пезешкиан Н. Психосоматика и позитивная психотерапия: Межкультуральные и междисциплинарные аспекты на примере 40 историй болезни. — М.: Медицина, 1996.</t>
+  </si>
+  <si>
+    <t>Лао-цзы. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/lao-tszy/.
+Бендлер Р. Руководство по изменению личности. — М.: Эксмо, 2009.
+Щербатых Ю. В., Ивлева Е. И. Психофизиологические и клинические аспекты страха, тревоги и фобий. — М.: Истоки, 1998
+Петровский А. В., Ярошевский М. Г. Краткий психологический словарь. — 2-е изд. — М.: Прогресс, 1987
+Бендлер Р. Указ. соч.
+Huxley A. Texts and Pretexts. — N.Y.: Norton, 1962.
+Соловьева Светлана Леонидовна. Психологическое консультирование. Справочник практического психолога. — М.: АСТ, 2010.
+Бендлер Р. Указ. соч.
+Джордж Бернард Шоу. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/dzhordzh-bernard-shou/.
+Жан-Поль Сартр. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/zhan-pol-sartr/.
+Бендлер Р. Указ. соч.
+Перлз Ф. С. Гештальт-терапия дословно // Московский психологический журнал. — 1994. — № 3.
+Дюма А. Три мушкетера. — М.: АСТ, 2018.</t>
+  </si>
+  <si>
+    <t>Шлейн Л. Мозг Леонардо: Постигая гений да Винчи. — М.: Альпина Диджитал, 2016.
+Robert, Ornstein. The Right Mind: Making Sense of the Hemispheres. — Orlando, FL: Harcourt Brace, 1997; Шлейн Л. Мозг Леонардо: Постигая гений да Винчи. — Альпина Диджитал, 2016.
+Почему одно из полушарий мозга оказывается ведущим // Портал «Научная Россия». Веб-публикация: https://scientificrussia.ru/.
+Ontogenesis of Lateralization // Neuron. Volume 94, ISSUE 2, P249-263, 2017. URL: https://www.cell.com/neuron/fulltext/S0896-6273(17)30153-8?_returnURL=http%3A%2F%2Flinkinghub.elsevier.com%2Fretrieve%2Fpii%2FS0896627317301538%3Fshowall%3Dtrue#relatedArticles.
+Propper R.E., McGraw S.E., Brunyé T.T., Weiss M. (2013) Correction: Getting a Grip on Memory: Unilateral Hand Clenching Alters Episodic Recall. PLOS ONE 8(5): 10.1371. URL: https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0062474.
+Шлейн Л. Указ. соч.
+Амбидекстрия // Большой психологический словарь / Сост. Б. Мещеряков, В. Зинченко. — М.: АСТ, 2008.
+Капаччионе Л. Сила другой руки. Раскрытие возможностей правого полушария. — М.: Генезис, 2019.
+Берн Э. Игры, в которые играют люди. — СПб.: Лениздат, 1992.
+Что такое нейробика и как она помогает включить голову. Веб-публикация: https://lifestyle.segodnya.ua/lifestyle/food_wellness/chto-takoe-neyrobika-i-kak-ona-pomogaet-vklyuchit-golovu-684837.html.
+Кац Л. К., Рубин М. Нейробика. Экзерсисы для тренировки мозга. — Минск: Попурри, 2014.
+Капаччионе Л. Указ. соч.
+Погудина Е. Исцеление Внутреннего ребенка. Найди источник силы внутри себя. — М.: АСТ, 2022.
+Stein, Gertrude. PICASSO. — 1938.</t>
+  </si>
+  <si>
+    <t>Гиппократ. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/gippokrat/.
+Тик Н. Х., Сумедо А. Гнев. Счастье внутренней тишины. — Москва: ИПЛ, 2018.
+Calhoun, John. Death Squared: The Explosive Growth and Demise of a Mouse Population // Proc. roy. Soc. Med. — 1973. — Vol. 66; Утопия для мышей: 53 года эксперименту «Вселенная-25» // Портал «Научная Россия». Веб-публикация: https://scientificrussia.ru/articles/utopiya-dlya-myshej-53-goda-eksperimentu-vselennaya-25.
+Селье Г. Стресс без дистресса. — СПб.: Виеда, 1992.
+Морозов А. В. Деловая психология. Учебник для студентов высш. и сред. учеб. заведений. — М.: Академический проект, 2005.
+Сафарли Э. Когда я вернусь, будь дома. — М.: АСТ, 2017.
+Берцбах Ф. Не упустить свою жизнь. Практика осознанности в творчестве. — М.: МИФ, 2019.</t>
+  </si>
+  <si>
+    <t>Гришковец Е. Планета. — Брест: Наша Альтернатива, 2005.
+Вайзер Дж. Техники фототерапии: использование интеракций с фотографиями для улучшения жизни людей // Визуальная антропология: настройка оптики / Под ред. Е. Ярской-Смирновой, П. Романова. — М.: Вариант, ЦСПГИ, 2009.
+Вайзер Дж. Техники фототерапии. Исследование секретов личных фотографий и семейных фотоальбомов. — М.: Генезис, 2017.
+Селзник Б. Хранитель времени. — М.: АСТ, 2010.
+Лапин А. Фотография как… — М.: Тримедия, 2018.
+Работа с личными фотографиями в режиме фототерапия. Веб-публикация: https://www.b17.ru/article/rabota_s_lichnymi_fotografiyami_v_rezhim/.
+Weiser J. PhotoTherapy techniques: exploring the secrets of personal snapshots and family albums (2nd ed.). — Vancouver: PhotoTherapy Centre, 1999.</t>
+  </si>
+  <si>
+    <t>Ермошин А. Психокатализ и соматопсихология. Вещи в теле: психотерапевтический метод работы с ощущениями. — М.: Институт консультирования и системных решений, 2019.
+Фельденкрайз М. Сознавание через движение. Двенадцать практических уроков. — М.: Академический проект, 2020.
+Бернштейн Н. А. Физиология движений и активность. — М.: Наука, 1990.
+Фейдимен Д., Фрейгер Р. Личность и личностный рост. — М.: Изд-во Рос. открытого ун-та, 1994.
+Свободное тело. Хрестоматия по телесно-ориентированной психотерапии и психотехнике. Выпуск № 3 / Ред.-сост. Баскаков В. Ю. — М.: Институт общегуманитарных исследований, 2004.
+Ханна Т. Соматика: Возрождение контроля ума над движением, гибкостью и здоровьем. — М.: Проект Метод Фельденкрайза по-русски, 2012.
+Райх В. Анализ личности. — СПб.: Ювента, 1999.
+Хрестоматия по телесно-ориентированной психотерапии и психотехнике / Ред.-сост. Баскаков В. Ю. — М.: Институт общегуманитарных исследований, 2016.
+Хрестоматия по телесно-ориентированной психотерапии и психотехнике; Козлов В. В. Психотехнологии измененных состояний сознания. — М.: Изд-во Института психотерапии, 2016.
+Козлов В. В. Указ. соч.
+Фельденкрайз М. Указ. соч.
+Малкина-Пых И. Телесная терапия. — М.: Эксмо, 2007.
+Фельденкрайз М. Указ. соч.</t>
+  </si>
+  <si>
+    <t>Frits Staal. Rules Without Meaning. Ritual, Mantras and the Human Sciences, Peter Lang. — N.Y.–Bern–Frankfurt am Main-Paris, 1989.
+Медитация на Будду медицины была дана Лопеном Цечу Ринпоче (1997) по просьбе Ламы Оле Нидала.
+Максимов Артем. Тибетская медицина. Диагностика заболеваний, лечебные ванны, массажи, прогревания, рефлексотерапия. — Харьков: Клуб семейного досуга, 2019.
+Петренко В. Ф., Кучеренко В. В. Психологические аспекты медитации (1-я часть). Точки Отсчета. — М.: Агни-Йога, Новый мир, 2018.
+Кочергина В. А. Санскритско-русский словарь / Под ред. В. И. Кальянова; с приложением «Грамматического очерка санскрита» А. А. Зализняка. 2-е изд., испр. и доп. — М.: Русский язык, 1987.
+Психологос. Визуализация. Веб-публикация: https://www.psychologos.ru/articles/view/vizualizaciya.</t>
+  </si>
+  <si>
+    <t>Гуфеланд В. Искусство продлить человеческую жизнь. — Л: СПб., 2013.
+Психологос. Эмиль Куэ. Веб-публикация: https://www.psychologos.ru/articles/view/emil-kue--otec-sovremennoy-teorii-samovnusheniya.
+Шульц И. Г. Аутогенная тренировка. — М.: Медицина, 1985.
+Петров Н. Н. Аутогенная тренировка для вас. — М.: Центр психологии и психотерапии, 1990.
+Кандыба Д. В. Тайные возможности человека. — Ростов н/Д: Феникс, 1995.
+Ильин Е. Эмоции и чувства. — СПб.: Питер, 2019.
+Бах Б. Аутогенная тренировка по Владимиру Леви. — М.: АСТ, 2011.
+Петров Н. Н. Указ. соч.
+Томас К. Переживание образов. Высшая ступень аутогенной тренировки. — М.: Эйдос, 1994.</t>
+  </si>
+  <si>
+    <t>Эмоционально-образная коррекция. Веб-публикация: https://www.facebook.com/eokpraktika/.
+18 мантр из книги: Натара. Исцеляющие мантры и символы. Духовное наставление архангела Михаила. — Минск: Попурри, 2013.</t>
+  </si>
+  <si>
+    <t>Богданова Л. Вдох-выдох. Дыхание как способ саморегуляции. Веб-публикация: https://pro-psixology.ru/zasluzhi-sebe-schaste/378-dyxanie-kak-sposob-samoregulyacii.html [18.08.2020].
+Козлов В. Психотехнологии измененных состояний сознания. — М.: Психотерапия, 2016.
+Орр Л. Осознанное дыхание. — М.: София, 2005.
+Пенман Д. Искусство дыхания. Секрет осознанной жизни. — М.: МИФ, 2017.
+Фельденкрайз М. Осознавание через движение. Двенадцать практических уроков. — М.: ИОИ, 2017.
+Rakal, David. Learning Deep Breathing. Веб-публикация: https://psychcentral.com/lib/learning-deep-breathing/ [17.08.2020].</t>
+  </si>
+  <si>
+    <t>Роуч М. Алмазный Огранщик. Система управления бизнесом и жизнью. — М.: АСТ, 2022.
+Диспенза Д. Сила подсознания, или Как изменить жизнь за 4 недели. — М.: Бомбора, 2022.
+Свияш А. Разумный мир: как жить без лишних переживаний. — М.: АСТ, 2008.
+Бурбо Л. Слушай свое тело — твоего лучшего друга на Земле. — М.: София, 2014; Бурбо Л. Пять травм, которые мешают быть самим собой. — М.: София, 2010.
+Ситников А. KARMALOGIC. — РИПОЛ классик, 2018.
+Чиксентмихайи М. Поток: Психология оптимального переживания. — М.: Альпина нон-фикшн, 2015.
+Уолш Н. Беседы с Богом: Необычный диалог. Серия книг. — М.: София, 2011.
+Дюпре У. Хоопонопоно. Гавайские практики для счастливой жизни. — М.: Эксмо, 2021.</t>
+  </si>
+  <si>
+    <t>Sánchez-Villegas A., Martínez-González M.A., Estruch R. et al. Mediterranean dietary pattern and depression: the PREDIMED randomized trial. BMC Med 11, 208, 2013. URL: https://doi.org/10.1186/1741-7015-11-208. https://bmcmedicine.biomedcentral.com/articles/10.1186/1741-7015-11-208.
+Brain Food &amp; Nutrition. URL: https://drewramseymd.com/category/brain-food-nutrition/.
+Бернштейн, Элизабет. Пища, которая помогает бороться с депрессией. Веб-публикация: https://theidealist.ru/foodvsdepression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кочарян Г. С. Терапевтические техники нейролингвистического программирования (НЛП). — Киев: НИКА-Центр, 2002.
+Мак-Дермотт Ян, О'Коннор Джозеф. НЛП и здоровье. Использование НЛП для улучшения здоровья и благополучия. — Библиотека А. Миллера, 1998.
+Дилтс Р. Стратегии гениев. Т. 3. Зигмунд Фрейд, Леонардо да Винчи, Никола Тесла. — М.: Класс, 1998.
+</t>
+  </si>
+  <si>
+    <t>Fletcher J. E. A Study of the Life and Works of Athanasius Kircher, ‘Germanus Incredibilis'. — Leiden: Brill, 2011.
+Апанасенко Г.Л., Савельева-Кулик Н.А. Музыкальная терапия: история, современность и перспективы развития. Веб-публикация: https://www.umj.com.ua/article/10694/muzykalnaya-terapiya-istoriya-sovremennost-i-perspektivy-razvitiya
+Карвасарский Б.Д. Психотерапевтическая энциклопедия 2-е издание. — СПб.: Питер, 2000.
+Dr. Alisa Apreleva. URL: https://stephenhawkingfoundation.org/mnd-music/https://onlineconferenceformusictherapy.com/sessions/introducing-music-therapy-in-multidisciplinary-team-approach-to-als-mnd-care/https://www.rbth.com/lifestyle/330967-music-therapy-russia
+What is music therapy? URL: https://www.nordoff-robbins.org.uk/music-therapy/what-is-music-therapy.
+Карвасарский Б.Д. Указ. соч.Самсонова Г.О. Музыкотерапия в комплексе оздоровительных технологий. В кн.: А.А. Хадарцев (ред.). Специальные разделы восстановительной медицины. Теория и практика восстановительной медицины, Т. V, Тула. — М.: Дизайн-Коллегия, 2006.
+Музтерапевт.ру. Информационно-образовательный ресурс о музыкальной терапии. Веб-публикация: https://muzterapevt.ru/2018/12/01/music-therapy/.
+Ван дер Колк Бессел. Тело помнит все. — М.: Бомбора, 2020.
+Möckel M., Röcker L., Störk T. et al. Immediate physiological responses of healthy volunteers to different types of music: cardiovascular, hormonal and mental changes // Eur. J. Appl. Physiol. Occup. Physiol. — 1994. — № 68(6).
+Декер-Фойгт Г. Г. Введение в музыкотерапию. — СПб.: Питер, 2003.
+Кэмпбелл Д. Дж. Эффект Моцарта. — Минск: Попурри, 1999.
+Dr. Anita Collins. The Music Advantage: How learning music helps your child's brain and wellbeing. — TarcherPerigee, 2021; Neural Dynamics of Improved Bimodal Attention and Working Memory in Musically Trained Children. URL: https://www.frontiersin.org/articles/10.3389/fnins.2020.554731/full.
+Андреева Н. В., Голочалова А. В., Мишина О.О. Воздействие волн на организм человека // II Международная научно-практическая конференция «Современные инновации: фундаментальные и прикладные исследования». — 2015. — № 2(2).</t>
+  </si>
+  <si>
+    <t>Вербер Б. Ящик Пандоры. — М.: Эксмо, 2019.
+Altered States: Hypnosis In Mainstream Medicine. By Michael WaldholzStaff Reporter of The Wall Street Journal, 2003. URL: https://www.wsj.com/articles/SB106547604070249200.
+Ламбру П. Т., Алман Б. М. Самогипноз. Руководство по изменению себя. — М.: Класс, 1995.
+Бендлер Р., Гриндер Д. Наведение транса. Структура и технология гипноза. Живой тренинг лучших техник гипноза. — М.: ПСИ, 2022.
+Гиллиген С. Терапевтические трансы. — М.: Изд-во Ин-та психотерапии, 2011.
+О пользе и вреде гипноза // Нам надо поговорить с Алексеем Ситниковым. Веб-публикация: https://www.youtube.com/watch?v=Fx1kwjrWxJc.
+Эпиктет. Цитаты. Веб-публикация: https://ru.citaty.net/avtory/epiktet/?ysclid=l87tzdxal7114332037.
+Бакиров А. Разговорный гипноз. — М.: Эксмо, 2022.
+Ламбру П. Т., Алман Б. М. Указ. соч.
+Гиллиген С. Указ. соч.</t>
   </si>
 </sst>
 </file>
@@ -1398,12 +1926,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1DFCFCB-6D96-434F-A3E5-4CCC02B6670E}" name="Таблица1" displayName="Таблица1" ref="A1:J55" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:J55" xr:uid="{A1DFCFCB-6D96-434F-A3E5-4CCC02B6670E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1DFCFCB-6D96-434F-A3E5-4CCC02B6670E}" name="Таблица1" displayName="Таблица1" ref="A1:L55" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:L55" xr:uid="{A1DFCFCB-6D96-434F-A3E5-4CCC02B6670E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J55">
     <sortCondition ref="A1:A55"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{5C64F20A-3E1A-44F2-8CFE-A6A1F4C9A8E0}" name="№" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{B348C92F-3347-4F8C-95FD-4628C8633322}" name="Кодировка"/>
     <tableColumn id="3" xr3:uid="{B6706F54-0987-49CA-9A61-83E136E853C8}" name="Категория"/>
@@ -1414,6 +1942,8 @@
     <tableColumn id="8" xr3:uid="{5D7417AA-D5D6-430B-A026-1F53EA435650}" name="картинка"/>
     <tableColumn id="9" xr3:uid="{E246E29E-5C01-4D9E-976B-903D873294A9}" name="картинка2"/>
     <tableColumn id="10" xr3:uid="{303D5CFB-4923-4463-B39C-F562A3FD01AD}" name="время" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{80B2C39E-AD9F-4928-A485-52E0A779686E}" name="ссылка2"/>
+    <tableColumn id="12" xr3:uid="{794F26A6-9797-4994-95BF-950C68DC687A}" name="Список литературы"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1716,11 +2246,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B727B-5F9D-46DC-809A-B43EF431020E}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1732,9 +2262,10 @@
     <col min="8" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1768,8 +2299,11 @@
       <c r="K1" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1803,8 +2337,11 @@
       <c r="K2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1838,8 +2375,11 @@
       <c r="K3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1873,8 +2413,11 @@
       <c r="K4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1897,7 +2440,7 @@
         <v>307</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I5" t="s">
         <v>236</v>
@@ -1908,8 +2451,11 @@
       <c r="K5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1932,7 +2478,7 @@
         <v>307</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I6" t="s">
         <v>237</v>
@@ -1943,8 +2489,11 @@
       <c r="K6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1978,8 +2527,11 @@
       <c r="K7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2013,8 +2565,11 @@
       <c r="K8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2048,8 +2603,11 @@
       <c r="K9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2083,8 +2641,11 @@
       <c r="K10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2118,8 +2679,11 @@
       <c r="K11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2153,8 +2717,11 @@
       <c r="K12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2188,8 +2755,11 @@
       <c r="K13" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2223,8 +2793,11 @@
       <c r="K14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2258,8 +2831,11 @@
       <c r="K15" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2293,8 +2869,11 @@
       <c r="K16" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2328,8 +2907,11 @@
       <c r="K17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2363,8 +2945,11 @@
       <c r="K18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2398,8 +2983,11 @@
       <c r="K19" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2433,8 +3021,11 @@
       <c r="K20" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2468,8 +3059,11 @@
       <c r="K21" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2503,8 +3097,11 @@
       <c r="K22" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2538,8 +3135,11 @@
       <c r="K23" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2573,8 +3173,11 @@
       <c r="K24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2608,8 +3211,11 @@
       <c r="K25" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2643,8 +3249,11 @@
       <c r="K26" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2678,8 +3287,11 @@
       <c r="K27" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2713,8 +3325,11 @@
       <c r="K28" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2748,8 +3363,11 @@
       <c r="K29" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2783,8 +3401,11 @@
       <c r="K30" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2818,8 +3439,11 @@
       <c r="K31" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2853,8 +3477,11 @@
       <c r="K32" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2888,8 +3515,11 @@
       <c r="K33" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2923,8 +3553,11 @@
       <c r="K34" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2958,8 +3591,11 @@
       <c r="K35" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2993,8 +3629,11 @@
       <c r="K36" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3028,8 +3667,11 @@
       <c r="K37" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3063,8 +3705,11 @@
       <c r="K38" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3098,8 +3743,11 @@
       <c r="K39" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3133,8 +3781,11 @@
       <c r="K40" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3168,8 +3819,11 @@
       <c r="K41" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3203,8 +3857,11 @@
       <c r="K42" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3238,8 +3895,11 @@
       <c r="K43" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3273,8 +3933,11 @@
       <c r="K44" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3308,8 +3971,11 @@
       <c r="K45" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3343,8 +4009,11 @@
       <c r="K46" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3378,8 +4047,11 @@
       <c r="K47" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3413,8 +4085,11 @@
       <c r="K48" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3448,8 +4123,11 @@
       <c r="K49" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3483,8 +4161,11 @@
       <c r="K50" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3518,8 +4199,11 @@
       <c r="K51" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3553,8 +4237,11 @@
       <c r="K52" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3588,8 +4275,11 @@
       <c r="K53" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3623,8 +4313,11 @@
       <c r="K54" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3657,6 +4350,9 @@
       </c>
       <c r="K55" t="s">
         <v>217</v>
+      </c>
+      <c r="L55" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/technics.xlsx
+++ b/technics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myras\Desktop\web\АЙФОРДЖИ\1. Сайт\Версии\2024.08.08 С техниками\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B21C09-6F4F-4F2D-A421-F3ADAE8B1F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970CBD0C-A836-4D97-9B9D-9346225EF524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8B3C0685-6F1A-4785-AB28-046616BCD206}"/>
   </bookViews>
@@ -12961,26 +12961,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -13009,6 +12989,26 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13330,13 +13330,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04E540D1-1BD1-4045-B28F-D0558420973F}" name="Таблица1" displayName="Таблица1" ref="A1:Q55" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04E540D1-1BD1-4045-B28F-D0558420973F}" name="Таблица1" displayName="Таблица1" ref="A1:Q55" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:Q55" xr:uid="{04E540D1-1BD1-4045-B28F-D0558420973F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q55">
     <sortCondition ref="B1:B55"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6F5BDA03-212D-4209-AA7F-34B1A62A8957}" name="№" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{6F5BDA03-212D-4209-AA7F-34B1A62A8957}" name="№" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{ACEE3A8A-947A-4B87-A01E-A3D79965605D}" name="Кодировка"/>
     <tableColumn id="3" xr3:uid="{7FBF2692-C9D3-4129-971A-25E41DE04437}" name="Категория"/>
     <tableColumn id="4" xr3:uid="{5E3E85F5-C4B7-495E-9658-EA6E945F2C07}" name="data-tag"/>
@@ -13344,15 +13344,15 @@
     <tableColumn id="6" xr3:uid="{2E9F1424-58D3-46B1-ABCF-E33DA04F7ABD}" name="Краткое описание"/>
     <tableColumn id="7" xr3:uid="{2624EEF8-6344-4C02-ADC2-524A0B4B28AA}" name="ссылка"/>
     <tableColumn id="8" xr3:uid="{31A05C59-9DEB-4F38-8B09-D5285C15EC2E}" name="картинка"/>
-    <tableColumn id="9" xr3:uid="{A11955F5-4715-45AD-BFCF-A835031468F7}" name="время" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{E8FF69A0-3A5E-48D9-8437-EAD5AC1309DA}" name="Зачем" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{01DCF726-3A6D-4BC7-9D42-7D8C25DFF278}" name="Как это работает" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{214ADA58-ED2A-4187-88C9-E067EEEF4BB0}" name="Алгоритм выполнения" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{7968D8A9-8A85-4792-B342-48620FA89CAF}" name="Литература по техникам" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{BD44F781-7E20-46A5-98B4-F242E25A11E5}" name="Литература. Рекомендации для чтения" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{8FD25D99-5A53-4D9F-B564-8348A11F3867}" name="Длительность" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{749459B9-02EF-4FC8-8183-07168C69BF3D}" name="Дополнительные упражнения" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{A6CB5219-20ED-4006-9FA4-3D6BE1B1FBAF}" name="Хэш тэги" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{A11955F5-4715-45AD-BFCF-A835031468F7}" name="время" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{E8FF69A0-3A5E-48D9-8437-EAD5AC1309DA}" name="Зачем" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{01DCF726-3A6D-4BC7-9D42-7D8C25DFF278}" name="Как это работает" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{214ADA58-ED2A-4187-88C9-E067EEEF4BB0}" name="Алгоритм выполнения" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7968D8A9-8A85-4792-B342-48620FA89CAF}" name="Литература по техникам" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{BD44F781-7E20-46A5-98B4-F242E25A11E5}" name="Литература. Рекомендации для чтения" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{8FD25D99-5A53-4D9F-B564-8348A11F3867}" name="Длительность" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{749459B9-02EF-4FC8-8183-07168C69BF3D}" name="Дополнительные упражнения" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{A6CB5219-20ED-4006-9FA4-3D6BE1B1FBAF}" name="Хэш тэги" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13659,7 +13659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13668,9 +13668,10 @@
     <col min="2" max="2" width="4.21875" customWidth="1"/>
     <col min="3" max="3" width="9.21875" customWidth="1"/>
     <col min="4" max="4" width="4.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="8" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.21875" style="1" customWidth="1"/>
     <col min="10" max="11" width="10.21875" customWidth="1"/>
     <col min="12" max="13" width="12.5546875" customWidth="1"/>
@@ -14002,7 +14003,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
@@ -14055,7 +14056,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
@@ -14106,7 +14107,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
@@ -14159,7 +14160,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
@@ -14212,7 +14213,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">

--- a/technics.xlsx
+++ b/technics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myras\Desktop\web\АЙФОРДЖИ\1. Сайт\Версии\2024.08.08 С техниками\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970CBD0C-A836-4D97-9B9D-9346225EF524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533383BB-9C8E-49E3-BBB5-FED6D3A12B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8B3C0685-6F1A-4785-AB28-046616BCD206}"/>
   </bookViews>
@@ -13658,8 +13658,8 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14264,7 +14264,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
@@ -14315,7 +14315,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
@@ -14368,7 +14368,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
@@ -14419,7 +14419,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
@@ -14472,7 +14472,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
@@ -14525,7 +14525,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
@@ -14578,7 +14578,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
@@ -14631,7 +14631,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="s">
@@ -14682,7 +14682,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
